--- a/Data/Excel_Wide/camino_totals_wide.xlsx
+++ b/Data/Excel_Wide/camino_totals_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,18 +1315,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>200710</t>
+          <t>200401</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="48">
@@ -1334,18 +1334,18 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C48" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>200711</t>
+          <t>200402</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="49">
@@ -1353,18 +1353,18 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C49" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>200712</t>
+          <t>200403</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="50">
@@ -1372,18 +1372,18 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>200801</t>
+          <t>200404</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="51">
@@ -1391,18 +1391,18 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>200802</t>
+          <t>200405</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>16860</v>
       </c>
     </row>
     <row r="52">
@@ -1410,18 +1410,18 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>200803</t>
+          <t>200406</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="53">
@@ -1429,18 +1429,18 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>200804</t>
+          <t>200407</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>31891</v>
       </c>
     </row>
     <row r="54">
@@ -1448,18 +1448,18 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>200805</t>
+          <t>200408</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>45601</v>
       </c>
     </row>
     <row r="55">
@@ -1467,18 +1467,18 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>200806</t>
+          <t>200409</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="56">
@@ -1486,18 +1486,18 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>200807</t>
+          <t>200410</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>14556</v>
       </c>
     </row>
     <row r="57">
@@ -1505,18 +1505,18 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>200808</t>
+          <t>200411</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="58">
@@ -1524,18 +1524,18 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C58" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>200809</t>
+          <t>200412</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="59">
@@ -1543,18 +1543,18 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>200810</t>
+          <t>200501</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
@@ -1562,14 +1562,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>200811</t>
+          <t>200502</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1581,14 +1581,14 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C61" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>200812</t>
+          <t>200503</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1600,14 +1600,14 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>200901</t>
+          <t>200504</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1619,14 +1619,14 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>200902</t>
+          <t>200505</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1638,14 +1638,14 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>200903</t>
+          <t>200506</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1657,14 +1657,14 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>200507</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1676,14 +1676,14 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>200508</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1695,14 +1695,14 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>200906</t>
+          <t>200509</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1714,14 +1714,14 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C68" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>200907</t>
+          <t>200510</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1733,14 +1733,14 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>200908</t>
+          <t>200511</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1752,14 +1752,14 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>200909</t>
+          <t>200512</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1771,14 +1771,14 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>200910</t>
+          <t>200601</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1790,14 +1790,14 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C72" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>200911</t>
+          <t>200602</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1809,14 +1809,14 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>200912</t>
+          <t>200603</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1828,14 +1828,14 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>201001</t>
+          <t>200604</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1847,14 +1847,14 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>201002</t>
+          <t>200605</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1866,14 +1866,14 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>201003</t>
+          <t>200606</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -1885,14 +1885,14 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>201004</t>
+          <t>200607</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1904,14 +1904,14 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>201005</t>
+          <t>200608</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1923,14 +1923,14 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>200609</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -1942,14 +1942,14 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>201007</t>
+          <t>200610</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -1961,14 +1961,14 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C81" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>201008</t>
+          <t>200611</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -1980,14 +1980,14 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>201009</t>
+          <t>200612</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -1999,14 +1999,14 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>201010</t>
+          <t>200701</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2018,14 +2018,14 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C84" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>201011</t>
+          <t>200702</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2037,14 +2037,14 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C85" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>201012</t>
+          <t>200703</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2056,18 +2056,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>201101</t>
+          <t>200704</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2075,14 +2075,14 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>201102</t>
+          <t>200705</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2094,14 +2094,14 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>201103</t>
+          <t>200706</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2113,14 +2113,14 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>201104</t>
+          <t>200707</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2132,14 +2132,14 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>201105</t>
+          <t>200708</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2151,14 +2151,14 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>201106</t>
+          <t>200709</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2170,14 +2170,14 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>201107</t>
+          <t>200710</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2189,14 +2189,14 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C93" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>201108</t>
+          <t>200711</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2208,14 +2208,14 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="C94" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>201109</t>
+          <t>200712</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2227,14 +2227,14 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C95" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>201110</t>
+          <t>200801</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2246,14 +2246,14 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C96" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>201111</t>
+          <t>200802</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2265,14 +2265,14 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C97" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>201112</t>
+          <t>200803</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2284,14 +2284,14 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>201201</t>
+          <t>200804</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2303,14 +2303,14 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>201202</t>
+          <t>200805</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2322,14 +2322,14 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>201203</t>
+          <t>200806</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2341,14 +2341,14 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>201204</t>
+          <t>200807</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2360,14 +2360,14 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C102" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>201205</t>
+          <t>200808</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2379,14 +2379,14 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C103" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>201206</t>
+          <t>200809</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2398,14 +2398,14 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>201207</t>
+          <t>200810</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2417,14 +2417,14 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C105" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>201208</t>
+          <t>200811</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2436,14 +2436,14 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>201209</t>
+          <t>200812</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2455,14 +2455,14 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>201210</t>
+          <t>200901</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2474,14 +2474,14 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C108" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>201211</t>
+          <t>200902</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2493,14 +2493,14 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C109" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>201212</t>
+          <t>200903</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2512,14 +2512,14 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>201301</t>
+          <t>200904</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2531,14 +2531,14 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>201302</t>
+          <t>200905</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2550,14 +2550,14 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C112" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>201303</t>
+          <t>200906</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -2569,14 +2569,14 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>201304</t>
+          <t>200907</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -2588,14 +2588,14 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C114" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>201305</t>
+          <t>200908</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -2607,14 +2607,14 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C115" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>201306</t>
+          <t>200909</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2626,14 +2626,14 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C116" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>201307</t>
+          <t>200910</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2645,14 +2645,14 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C117" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>201308</t>
+          <t>200911</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2664,14 +2664,14 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>201309</t>
+          <t>200912</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -2683,14 +2683,14 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>201310</t>
+          <t>201001</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2702,14 +2702,14 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C120" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>201311</t>
+          <t>201002</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2721,14 +2721,14 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>201312</t>
+          <t>201003</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2740,14 +2740,14 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>201401</t>
+          <t>201004</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -2759,14 +2759,14 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>201402</t>
+          <t>201005</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2778,14 +2778,14 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>201403</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2797,14 +2797,14 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>201404</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -2816,14 +2816,14 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C126" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>201405</t>
+          <t>201008</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -2835,14 +2835,14 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C127" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>201406</t>
+          <t>201009</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -2854,14 +2854,14 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C128" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>201407</t>
+          <t>201010</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -2873,14 +2873,14 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C129" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>201408</t>
+          <t>201011</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -2892,14 +2892,14 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C130" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>201409</t>
+          <t>201012</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -2911,18 +2911,18 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>201410</t>
+          <t>201101</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="132">
@@ -2930,14 +2930,14 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C132" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>201411</t>
+          <t>201102</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -2949,14 +2949,14 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C133" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>201412</t>
+          <t>201103</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -2968,14 +2968,14 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>201501</t>
+          <t>201104</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -2987,14 +2987,14 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C135" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>201502</t>
+          <t>201105</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3006,14 +3006,14 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C136" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>201503</t>
+          <t>201106</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3025,14 +3025,14 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C137" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>201504</t>
+          <t>201107</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3044,14 +3044,14 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>201505</t>
+          <t>201108</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3063,14 +3063,14 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C139" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>201506</t>
+          <t>201109</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3082,14 +3082,14 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C140" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>201507</t>
+          <t>201110</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3101,14 +3101,14 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C141" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>201508</t>
+          <t>201111</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3120,14 +3120,14 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>201509</t>
+          <t>201112</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3139,14 +3139,14 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C143" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>201201</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3158,14 +3158,14 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C144" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>201511</t>
+          <t>201202</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3177,14 +3177,14 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C145" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>201512</t>
+          <t>201203</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3196,14 +3196,14 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>201601</t>
+          <t>201204</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3215,14 +3215,14 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>201602</t>
+          <t>201205</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3234,14 +3234,14 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>201603</t>
+          <t>201206</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3253,14 +3253,14 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>201604</t>
+          <t>201207</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3272,14 +3272,14 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C150" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>201605</t>
+          <t>201208</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3291,14 +3291,14 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C151" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>201606</t>
+          <t>201209</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3310,14 +3310,14 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C152" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>201607</t>
+          <t>201210</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3329,14 +3329,14 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C153" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>201608</t>
+          <t>201211</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3348,14 +3348,14 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C154" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>201609</t>
+          <t>201212</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3367,14 +3367,14 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C155" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>201610</t>
+          <t>201301</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3386,14 +3386,14 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C156" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>201611</t>
+          <t>201302</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -3405,14 +3405,14 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C157" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>201612</t>
+          <t>201303</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -3424,14 +3424,14 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>201701</t>
+          <t>201304</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -3443,14 +3443,14 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C159" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>201702</t>
+          <t>201305</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3462,14 +3462,14 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>201703</t>
+          <t>201306</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3481,14 +3481,14 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C161" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>201704</t>
+          <t>201307</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3500,14 +3500,14 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>201308</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -3519,14 +3519,14 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C163" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>201309</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3538,14 +3538,14 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C164" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>201310</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -3557,14 +3557,14 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C165" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>201311</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3576,18 +3576,18 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>201312</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>42189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3595,14 +3595,14 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C167" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>201401</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3614,14 +3614,14 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C168" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>201402</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -3633,14 +3633,14 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C169" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>201403</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3652,18 +3652,18 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>201404</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3671,18 +3671,18 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C171" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>201405</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3690,18 +3690,18 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>201406</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>11056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3709,18 +3709,18 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C173" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>201407</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3728,18 +3728,18 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C174" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>201408</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3747,18 +3747,18 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>201409</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>45685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3766,18 +3766,18 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C176" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>201410</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3785,18 +3785,18 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C177" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>201411</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3804,18 +3804,18 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C178" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>201412</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3823,18 +3823,18 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C179" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>35602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -3842,18 +3842,18 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C180" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>201502</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>7651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -3861,18 +3861,18 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C181" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>201503</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3880,18 +3880,18 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>201504</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>1651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3899,18 +3899,18 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>201505</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3918,18 +3918,18 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>201506</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>7474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3937,18 +3937,18 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>201507</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3956,18 +3956,18 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>201905</t>
+          <t>201508</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>46672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3975,18 +3975,18 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>201906</t>
+          <t>201509</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>49057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3994,18 +3994,18 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C188" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>201907</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>53319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4013,18 +4013,18 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C189" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>201908</t>
+          <t>201511</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>62814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4032,18 +4032,18 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>201909</t>
+          <t>201512</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4051,18 +4051,18 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C191" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>201910</t>
+          <t>201601</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4070,18 +4070,18 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>201911</t>
+          <t>201602</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>8237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4089,18 +4089,18 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C193" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>201912</t>
+          <t>201603</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>2710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4108,18 +4108,18 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>202001</t>
+          <t>201604</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4127,18 +4127,18 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>202002</t>
+          <t>201605</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4146,18 +4146,18 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>202003</t>
+          <t>201606</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4165,14 +4165,14 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C197" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>202004</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4184,14 +4184,14 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C198" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>201608</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4203,18 +4203,18 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C199" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>202006</t>
+          <t>201609</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -4222,18 +4222,18 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C200" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>201610</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4241,18 +4241,18 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C201" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>202008</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -4260,18 +4260,18 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C202" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>202009</t>
+          <t>201612</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4279,18 +4279,18 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C203" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>202010</t>
+          <t>201701</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>6418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4298,18 +4298,18 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C204" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>202011</t>
+          <t>201702</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4317,18 +4317,18 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C205" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>202012</t>
+          <t>201703</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4336,18 +4336,18 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>202101</t>
+          <t>201704</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4355,18 +4355,18 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>202102</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4374,18 +4374,18 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>202103</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4393,18 +4393,18 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C209" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>202104</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4412,18 +4412,18 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C210" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>202105</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>4295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4431,18 +4431,18 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C211" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>202106</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14824</v>
+        <v>42189</v>
       </c>
     </row>
     <row r="212">
@@ -4450,18 +4450,18 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C212" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>202107</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>33963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4469,18 +4469,18 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C213" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>202108</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4488,18 +4488,18 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C214" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>202109</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>37463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4507,18 +4507,18 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C215" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>202110</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>31170</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="216">
@@ -4526,18 +4526,18 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C216" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>202111</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>9094</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="217">
@@ -4545,18 +4545,18 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C217" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>202112</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>1193</v>
+        <v>11056</v>
       </c>
     </row>
     <row r="218">
@@ -4564,18 +4564,18 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>202201</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1617</v>
+        <v>22068</v>
       </c>
     </row>
     <row r="219">
@@ -4583,18 +4583,18 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C219" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>202202</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2034</v>
+        <v>40665</v>
       </c>
     </row>
     <row r="220">
@@ -4602,18 +4602,18 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>202203</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>7389</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="221">
@@ -4621,18 +4621,18 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C221" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>202204</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34283</v>
+        <v>50867</v>
       </c>
     </row>
     <row r="222">
@@ -4640,18 +4640,18 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C222" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>202205</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>48254</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="223">
@@ -4659,18 +4659,18 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C223" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>202206</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>58012</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="224">
@@ -4678,18 +4678,18 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C224" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>202207</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>67374</v>
+        <v>35602</v>
       </c>
     </row>
     <row r="225">
@@ -4697,18 +4697,18 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C225" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>202208</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>85842</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="226">
@@ -4716,18 +4716,18 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="C226" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>202209</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>66196</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="227">
@@ -4735,18 +4735,911 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>201901</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>201902</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>201903</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>7474</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>201904</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>31721</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>201905</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>46672</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C232" t="n">
+        <v>6</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>201906</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>49057</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>201907</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>53319</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C234" t="n">
+        <v>8</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>201908</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>62814</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C235" t="n">
+        <v>9</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>201909</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C236" t="n">
+        <v>10</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>201910</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>36115</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C237" t="n">
+        <v>11</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>201911</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C238" t="n">
+        <v>12</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>202004</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>202007</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>9752</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C246" t="n">
+        <v>8</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>202008</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>19812</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C247" t="n">
+        <v>9</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C248" t="n">
+        <v>10</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>202010</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>6418</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C249" t="n">
+        <v>11</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C250" t="n">
+        <v>12</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>202012</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>202101</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C252" t="n">
+        <v>2</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>202102</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>202103</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>202104</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>202105</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C256" t="n">
+        <v>6</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>202106</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>14824</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>33963</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C258" t="n">
+        <v>8</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>202108</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C259" t="n">
+        <v>9</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>202109</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>37463</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C260" t="n">
+        <v>10</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>202110</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>31170</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C261" t="n">
+        <v>11</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>202111</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C262" t="n">
+        <v>12</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>202112</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
         <v>2022</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>202201</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>202202</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>202203</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>202204</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>34283</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>202205</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>48254</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>202206</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>58012</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C269" t="n">
+        <v>7</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>202207</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>67374</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C270" t="n">
+        <v>8</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>202208</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>85842</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>202209</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>66196</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C272" t="n">
         <v>10</v>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D272" t="inlineStr">
         <is>
           <t>202210</t>
         </is>
       </c>
-      <c r="E227" t="n">
+      <c r="E272" t="n">
         <v>51356</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C273" t="n">
+        <v>11</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>202211</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>11283</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C274" t="n">
+        <v>12</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>202212</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>4683</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_totals_wide.xlsx
+++ b/Data/Excel_Wide/camino_totals_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,18 +1315,18 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>200401</t>
+          <t>200710</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1334,18 +1334,18 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>200402</t>
+          <t>200711</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1353,18 +1353,18 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>200403</t>
+          <t>200712</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1372,18 +1372,18 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>200404</t>
+          <t>200801</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>15554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1391,18 +1391,18 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>200405</t>
+          <t>200802</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1410,18 +1410,18 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>200406</t>
+          <t>200803</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>19295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1429,18 +1429,18 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>200407</t>
+          <t>200804</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1448,18 +1448,18 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>200408</t>
+          <t>200805</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>45601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1467,18 +1467,18 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>200409</t>
+          <t>200806</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1486,18 +1486,18 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C56" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>200410</t>
+          <t>200807</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>14556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1505,18 +1505,18 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>200411</t>
+          <t>200808</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1524,18 +1524,18 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>200412</t>
+          <t>200809</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1543,18 +1543,18 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>200501</t>
+          <t>200810</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1562,14 +1562,14 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>200502</t>
+          <t>200811</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1581,14 +1581,14 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>200503</t>
+          <t>200812</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1600,14 +1600,14 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>200504</t>
+          <t>200901</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1619,14 +1619,14 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>200505</t>
+          <t>200902</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1638,14 +1638,14 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>200506</t>
+          <t>200903</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1657,14 +1657,14 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C65" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>200507</t>
+          <t>200904</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -1676,14 +1676,14 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>200508</t>
+          <t>200905</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1695,14 +1695,14 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>200509</t>
+          <t>200906</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -1714,14 +1714,14 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>200510</t>
+          <t>200907</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -1733,14 +1733,14 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C69" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>200511</t>
+          <t>200908</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -1752,14 +1752,14 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>200512</t>
+          <t>200909</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -1771,14 +1771,14 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>200601</t>
+          <t>200910</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1790,14 +1790,14 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>200602</t>
+          <t>200911</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -1809,14 +1809,14 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>200603</t>
+          <t>200912</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -1828,14 +1828,14 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>200604</t>
+          <t>201001</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1847,14 +1847,14 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>200605</t>
+          <t>201002</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1866,14 +1866,14 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>200606</t>
+          <t>201003</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -1885,14 +1885,14 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>200607</t>
+          <t>201004</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -1904,14 +1904,14 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>200608</t>
+          <t>201005</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1923,14 +1923,14 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>200609</t>
+          <t>201006</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -1942,14 +1942,14 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>200610</t>
+          <t>201007</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -1961,14 +1961,14 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>200611</t>
+          <t>201008</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -1980,14 +1980,14 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>200612</t>
+          <t>201009</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -1999,14 +1999,14 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>200701</t>
+          <t>201010</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2018,14 +2018,14 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>200702</t>
+          <t>201011</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2037,14 +2037,14 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>200703</t>
+          <t>201012</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -2056,18 +2056,18 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>200704</t>
+          <t>201101</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>644</v>
       </c>
     </row>
     <row r="87">
@@ -2075,14 +2075,14 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>200705</t>
+          <t>201102</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2094,14 +2094,14 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>200706</t>
+          <t>201103</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2113,14 +2113,14 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C89" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>200707</t>
+          <t>201104</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2132,14 +2132,14 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>200708</t>
+          <t>201105</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -2151,14 +2151,14 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>200709</t>
+          <t>201106</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -2170,14 +2170,14 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>200710</t>
+          <t>201107</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -2189,14 +2189,14 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>200711</t>
+          <t>201108</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -2208,14 +2208,14 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>200712</t>
+          <t>201109</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2227,14 +2227,14 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>200801</t>
+          <t>201110</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2246,14 +2246,14 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>200802</t>
+          <t>201111</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2265,14 +2265,14 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>200803</t>
+          <t>201112</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2284,14 +2284,14 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>200804</t>
+          <t>201201</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2303,14 +2303,14 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>200805</t>
+          <t>201202</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -2322,14 +2322,14 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>200806</t>
+          <t>201203</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2341,14 +2341,14 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>200807</t>
+          <t>201204</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2360,14 +2360,14 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C102" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>200808</t>
+          <t>201205</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -2379,14 +2379,14 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>200809</t>
+          <t>201206</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2398,14 +2398,14 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C104" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>200810</t>
+          <t>201207</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -2417,14 +2417,14 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C105" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>200811</t>
+          <t>201208</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2436,14 +2436,14 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C106" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>200812</t>
+          <t>201209</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -2455,14 +2455,14 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>200901</t>
+          <t>201210</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2474,14 +2474,14 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>200902</t>
+          <t>201211</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -2493,14 +2493,14 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C109" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>200903</t>
+          <t>201212</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -2512,14 +2512,14 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>200904</t>
+          <t>201301</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -2531,14 +2531,14 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C111" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>200905</t>
+          <t>201302</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -2550,14 +2550,14 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>200906</t>
+          <t>201303</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -2569,14 +2569,14 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>200907</t>
+          <t>201304</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -2588,14 +2588,14 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C114" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>200908</t>
+          <t>201305</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -2607,14 +2607,14 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C115" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>200909</t>
+          <t>201306</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2626,14 +2626,14 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>200910</t>
+          <t>201307</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2645,14 +2645,14 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C117" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>200911</t>
+          <t>201308</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2664,14 +2664,14 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>200912</t>
+          <t>201309</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -2683,14 +2683,14 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>201001</t>
+          <t>201310</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2702,14 +2702,14 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C120" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>201002</t>
+          <t>201311</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2721,14 +2721,14 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C121" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>201003</t>
+          <t>201312</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2740,14 +2740,14 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>201004</t>
+          <t>201401</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -2759,14 +2759,14 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C123" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>201005</t>
+          <t>201402</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2778,14 +2778,14 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C124" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>201006</t>
+          <t>201403</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2797,14 +2797,14 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C125" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>201007</t>
+          <t>201404</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -2816,14 +2816,14 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>201008</t>
+          <t>201405</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -2835,14 +2835,14 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>201009</t>
+          <t>201406</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -2854,14 +2854,14 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C128" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>201010</t>
+          <t>201407</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -2873,14 +2873,14 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>201011</t>
+          <t>201408</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -2892,14 +2892,14 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C130" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>201012</t>
+          <t>201409</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -2911,18 +2911,18 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>201101</t>
+          <t>201410</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2930,14 +2930,14 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C132" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>201102</t>
+          <t>201411</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -2949,14 +2949,14 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>201103</t>
+          <t>201412</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -2968,14 +2968,14 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>201104</t>
+          <t>201501</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -2987,14 +2987,14 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C135" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>201105</t>
+          <t>201502</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -3006,14 +3006,14 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C136" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>201106</t>
+          <t>201503</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -3025,14 +3025,14 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C137" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>201107</t>
+          <t>201504</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -3044,14 +3044,14 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C138" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>201108</t>
+          <t>201505</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -3063,14 +3063,14 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C139" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>201109</t>
+          <t>201506</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -3082,14 +3082,14 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C140" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>201110</t>
+          <t>201507</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3101,14 +3101,14 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C141" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>201111</t>
+          <t>201508</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -3120,14 +3120,14 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C142" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>201112</t>
+          <t>201509</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -3139,14 +3139,14 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>201201</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -3158,14 +3158,14 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>201202</t>
+          <t>201511</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -3177,14 +3177,14 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C145" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>201203</t>
+          <t>201512</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -3196,14 +3196,14 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C146" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>201204</t>
+          <t>201601</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -3215,14 +3215,14 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>201205</t>
+          <t>201602</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3234,14 +3234,14 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C148" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>201206</t>
+          <t>201603</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -3253,14 +3253,14 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C149" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>201207</t>
+          <t>201604</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -3272,14 +3272,14 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C150" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>201208</t>
+          <t>201605</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -3291,14 +3291,14 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C151" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>201209</t>
+          <t>201606</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -3310,14 +3310,14 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C152" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>201210</t>
+          <t>201607</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -3329,14 +3329,14 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C153" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>201211</t>
+          <t>201608</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -3348,14 +3348,14 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>201212</t>
+          <t>201609</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3367,14 +3367,14 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>201301</t>
+          <t>201610</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -3386,14 +3386,14 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>201302</t>
+          <t>201611</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -3405,14 +3405,14 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>201303</t>
+          <t>201612</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -3424,14 +3424,14 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>201304</t>
+          <t>201701</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -3443,14 +3443,14 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C159" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>201305</t>
+          <t>201702</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3462,14 +3462,14 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C160" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>201306</t>
+          <t>201703</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3481,14 +3481,14 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C161" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>201307</t>
+          <t>201704</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3500,14 +3500,14 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>201308</t>
+          <t>201705</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -3519,14 +3519,14 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C163" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>201309</t>
+          <t>201706</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3538,14 +3538,14 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C164" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>201310</t>
+          <t>201707</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -3557,14 +3557,14 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C165" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>201311</t>
+          <t>201708</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3576,18 +3576,18 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C166" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>201312</t>
+          <t>201709</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>42189</v>
       </c>
     </row>
     <row r="167">
@@ -3595,14 +3595,14 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>201401</t>
+          <t>201710</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3614,14 +3614,14 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>201402</t>
+          <t>201711</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -3633,14 +3633,14 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>201403</t>
+          <t>201712</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3652,18 +3652,18 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>201404</t>
+          <t>201801</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="171">
@@ -3671,18 +3671,18 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>201405</t>
+          <t>201802</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="172">
@@ -3690,18 +3690,18 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>201406</t>
+          <t>201803</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>11056</v>
       </c>
     </row>
     <row r="173">
@@ -3709,18 +3709,18 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C173" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>201407</t>
+          <t>201804</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>22068</v>
       </c>
     </row>
     <row r="174">
@@ -3728,18 +3728,18 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>201408</t>
+          <t>201805</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>40665</v>
       </c>
     </row>
     <row r="175">
@@ -3747,18 +3747,18 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C175" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>201409</t>
+          <t>201806</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>45685</v>
       </c>
     </row>
     <row r="176">
@@ -3766,18 +3766,18 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C176" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>201410</t>
+          <t>201807</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>50867</v>
       </c>
     </row>
     <row r="177">
@@ -3785,18 +3785,18 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C177" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>201411</t>
+          <t>201808</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>60415</v>
       </c>
     </row>
     <row r="178">
@@ -3804,18 +3804,18 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C178" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>201412</t>
+          <t>201809</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>47006</v>
       </c>
     </row>
     <row r="179">
@@ -3823,18 +3823,18 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>201501</t>
+          <t>201810</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>35602</v>
       </c>
     </row>
     <row r="180">
@@ -3842,18 +3842,18 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C180" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>201502</t>
+          <t>201811</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="181">
@@ -3861,18 +3861,18 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>201503</t>
+          <t>201812</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="182">
@@ -3880,18 +3880,18 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>201504</t>
+          <t>201901</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="183">
@@ -3899,18 +3899,18 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>201505</t>
+          <t>201902</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="184">
@@ -3918,18 +3918,18 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C184" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>201506</t>
+          <t>201903</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="185">
@@ -3937,18 +3937,18 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C185" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>201507</t>
+          <t>201904</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>31721</v>
       </c>
     </row>
     <row r="186">
@@ -3956,18 +3956,18 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C186" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>201508</t>
+          <t>201905</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>46672</v>
       </c>
     </row>
     <row r="187">
@@ -3975,18 +3975,18 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C187" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>201509</t>
+          <t>201906</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>49057</v>
       </c>
     </row>
     <row r="188">
@@ -3994,18 +3994,18 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C188" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>201907</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>53319</v>
       </c>
     </row>
     <row r="189">
@@ -4013,18 +4013,18 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C189" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>201511</t>
+          <t>201908</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>62814</v>
       </c>
     </row>
     <row r="190">
@@ -4032,18 +4032,18 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C190" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>201512</t>
+          <t>201909</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="191">
@@ -4051,18 +4051,18 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>201601</t>
+          <t>201910</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>36115</v>
       </c>
     </row>
     <row r="192">
@@ -4070,18 +4070,18 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C192" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>201602</t>
+          <t>201911</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>8237</v>
       </c>
     </row>
     <row r="193">
@@ -4089,18 +4089,18 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>201603</t>
+          <t>201912</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="194">
@@ -4108,18 +4108,18 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>201604</t>
+          <t>202001</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="195">
@@ -4127,18 +4127,18 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C195" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>201605</t>
+          <t>202002</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="196">
@@ -4146,18 +4146,18 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C196" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>201606</t>
+          <t>202003</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="197">
@@ -4165,14 +4165,14 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C197" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>201607</t>
+          <t>202004</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -4184,14 +4184,14 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>201608</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -4203,18 +4203,18 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C199" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>201609</t>
+          <t>202006</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200">
@@ -4222,18 +4222,18 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>201610</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="201">
@@ -4241,18 +4241,18 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C201" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>201611</t>
+          <t>202008</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>19812</v>
       </c>
     </row>
     <row r="202">
@@ -4260,18 +4260,18 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C202" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>201612</t>
+          <t>202009</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>10441</v>
       </c>
     </row>
     <row r="203">
@@ -4279,18 +4279,18 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>201701</t>
+          <t>202010</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>6418</v>
       </c>
     </row>
     <row r="204">
@@ -4298,18 +4298,18 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>201702</t>
+          <t>202011</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="205">
@@ -4317,18 +4317,18 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>201703</t>
+          <t>202012</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206">
@@ -4336,18 +4336,18 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>201704</t>
+          <t>202101</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="207">
@@ -4355,18 +4355,18 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C207" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>201705</t>
+          <t>202102</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208">
@@ -4374,18 +4374,18 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C208" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>201706</t>
+          <t>202103</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="209">
@@ -4393,18 +4393,18 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C209" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>201707</t>
+          <t>202104</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="210">
@@ -4412,18 +4412,18 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C210" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>201708</t>
+          <t>202105</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="211">
@@ -4431,18 +4431,18 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C211" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>201709</t>
+          <t>202106</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>42189</v>
+        <v>14824</v>
       </c>
     </row>
     <row r="212">
@@ -4450,18 +4450,18 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C212" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>201710</t>
+          <t>202107</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>33963</v>
       </c>
     </row>
     <row r="213">
@@ -4469,18 +4469,18 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C213" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>201711</t>
+          <t>202108</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="214">
@@ -4488,18 +4488,18 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C214" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>201712</t>
+          <t>202109</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>37463</v>
       </c>
     </row>
     <row r="215">
@@ -4507,18 +4507,18 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>201801</t>
+          <t>202110</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1627</v>
+        <v>31170</v>
       </c>
     </row>
     <row r="216">
@@ -4526,18 +4526,18 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C216" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>201802</t>
+          <t>202111</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2181</v>
+        <v>9094</v>
       </c>
     </row>
     <row r="217">
@@ -4545,18 +4545,18 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>201803</t>
+          <t>202112</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>11056</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="218">
@@ -4564,18 +4564,18 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C218" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>201804</t>
+          <t>202201</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22068</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="219">
@@ -4583,18 +4583,18 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>201805</t>
+          <t>202202</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>40665</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="220">
@@ -4602,18 +4602,18 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C220" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>201806</t>
+          <t>202203</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>45685</v>
+        <v>7389</v>
       </c>
     </row>
     <row r="221">
@@ -4621,18 +4621,18 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C221" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>201807</t>
+          <t>202204</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>50867</v>
+        <v>34283</v>
       </c>
     </row>
     <row r="222">
@@ -4640,18 +4640,18 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C222" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>201808</t>
+          <t>202205</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>60415</v>
+        <v>48254</v>
       </c>
     </row>
     <row r="223">
@@ -4659,18 +4659,18 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C223" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>201809</t>
+          <t>202206</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>47006</v>
+        <v>58012</v>
       </c>
     </row>
     <row r="224">
@@ -4678,18 +4678,18 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C224" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>201810</t>
+          <t>202207</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35602</v>
+        <v>67374</v>
       </c>
     </row>
     <row r="225">
@@ -4697,18 +4697,18 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C225" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>201811</t>
+          <t>202208</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>7651</v>
+        <v>85842</v>
       </c>
     </row>
     <row r="226">
@@ -4716,18 +4716,18 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C226" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>201812</t>
+          <t>202209</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2553</v>
+        <v>66196</v>
       </c>
     </row>
     <row r="227">
@@ -4735,18 +4735,18 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>201901</t>
+          <t>202210</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1651</v>
+        <v>51356</v>
       </c>
     </row>
     <row r="228">
@@ -4754,18 +4754,18 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C228" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>201902</t>
+          <t>202211</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2119</v>
+        <v>11283</v>
       </c>
     </row>
     <row r="229">
@@ -4773,18 +4773,18 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>201903</t>
+          <t>202212</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>7474</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="230">
@@ -4792,854 +4792,18 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>201904</t>
+          <t>202301</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31721</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>201905</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>46672</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C232" t="n">
-        <v>6</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>201906</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>49057</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C233" t="n">
-        <v>7</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>201907</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>53319</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C234" t="n">
-        <v>8</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>201908</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>62814</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C235" t="n">
-        <v>9</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>201909</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C236" t="n">
-        <v>10</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>201910</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>36115</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C237" t="n">
-        <v>11</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>201911</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>8237</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C238" t="n">
-        <v>12</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>201912</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>2710</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>202001</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C240" t="n">
-        <v>2</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>202002</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>202004</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>202005</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C244" t="n">
-        <v>6</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>202006</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C245" t="n">
-        <v>7</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>202007</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>9752</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C246" t="n">
-        <v>8</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>202008</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>19812</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C247" t="n">
-        <v>9</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>10441</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C248" t="n">
-        <v>10</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>202010</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>6418</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C249" t="n">
-        <v>11</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>202011</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C250" t="n">
-        <v>12</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>202012</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>202101</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C252" t="n">
-        <v>2</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>202102</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C253" t="n">
-        <v>3</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>202103</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C254" t="n">
-        <v>4</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>202104</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C255" t="n">
-        <v>5</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>202105</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C256" t="n">
-        <v>6</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>202106</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>14824</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C257" t="n">
-        <v>7</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>202107</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>33963</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C258" t="n">
-        <v>8</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>202108</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>43575</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C259" t="n">
-        <v>9</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>202109</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>37463</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C260" t="n">
-        <v>10</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>202110</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>31170</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C261" t="n">
-        <v>11</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>202111</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>9094</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C262" t="n">
-        <v>12</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>202112</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C263" t="n">
-        <v>1</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>202201</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C264" t="n">
-        <v>2</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>202202</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C265" t="n">
-        <v>3</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>202203</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>7389</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C266" t="n">
-        <v>4</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>202204</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>34283</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C267" t="n">
-        <v>5</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>202205</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>48254</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C268" t="n">
-        <v>6</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>202206</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>58012</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C269" t="n">
-        <v>7</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>202207</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>67374</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C270" t="n">
-        <v>8</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>202208</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>85842</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C271" t="n">
-        <v>9</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>202209</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>66196</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C272" t="n">
-        <v>10</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>202210</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>51356</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C273" t="n">
-        <v>11</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>202211</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>11283</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C274" t="n">
-        <v>12</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>202212</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>4683</v>
+        <v>2028</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel_Wide/camino_totals_wide.xlsx
+++ b/Data/Excel_Wide/camino_totals_wide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4806,6 +4806,25 @@
         <v>2028</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>202302</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
